--- a/Sprint 2/Sprint_Backlog/Sprint2TestPlan.xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint2TestPlan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afzalmiah\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthewaston\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Test Plan" sheetId="1" r:id="rId1"/>
@@ -28,16 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>Logging in</t>
-  </si>
-  <si>
-    <t>Should get to home screen</t>
-  </si>
-  <si>
-    <t>User directed to different page</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>TESTER COMMENTS</t>
   </si>
@@ -87,12 +78,6 @@
     <t>SPECIAL NOTES</t>
   </si>
   <si>
-    <t>A. Smith</t>
-  </si>
-  <si>
-    <t>No issues</t>
-  </si>
-  <si>
     <t>CLICK HERE TO CREATE IN SMARTSHEET</t>
   </si>
   <si>
@@ -103,6 +88,51 @@
   </si>
   <si>
     <t>User Story #</t>
+  </si>
+  <si>
+    <t>Two search boxes on screen</t>
+  </si>
+  <si>
+    <t>Loading webpage</t>
+  </si>
+  <si>
+    <t>Results and Filters appear beside the map</t>
+  </si>
+  <si>
+    <t>Calculate best score based on location and cost(023 as search)</t>
+  </si>
+  <si>
+    <t>Result of **** displayed to user on screen as 'Best'</t>
+  </si>
+  <si>
+    <t>Calculate closest result based on user location(*example location as search*)</t>
+  </si>
+  <si>
+    <t>Result of **** displayed to user on screen as 'Closest'</t>
+  </si>
+  <si>
+    <t>Search database restricted by a maximum distance(*x miles, 023 search)</t>
+  </si>
+  <si>
+    <t>Calculate all valid locations based on distance restriction and show on screen(*x miles, 023 search)</t>
+  </si>
+  <si>
+    <t>Database returns correct data</t>
+  </si>
+  <si>
+    <t>List all valid locations on screen</t>
+  </si>
+  <si>
+    <t>search database restricted by a maximum Cost( x money, 023 search)</t>
+  </si>
+  <si>
+    <t>database returns correct data</t>
+  </si>
+  <si>
+    <t>list all valid locations on screen</t>
+  </si>
+  <si>
+    <t>Calculate all valid locations based on Cost restriction and show on screen(*x money, 023 search)</t>
   </si>
 </sst>
 </file>
@@ -304,7 +334,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -370,13 +400,31 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -762,7 +810,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3271,13 +3319,14 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="31" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="50.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
@@ -3291,9 +3340,9 @@
   <sheetData>
     <row r="1" spans="2:25" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C1" s="26"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -3321,13 +3370,13 @@
       <c r="B2" s="24"/>
       <c r="C2" s="27"/>
       <c r="D2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="3"/>
@@ -3353,11 +3402,11 @@
       <c r="B3" s="24"/>
       <c r="C3" s="27"/>
       <c r="D3" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="13">
         <v>1</v>
@@ -3385,13 +3434,13 @@
       <c r="B4" s="24"/>
       <c r="C4" s="27"/>
       <c r="D4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="3"/>
@@ -3415,7 +3464,7 @@
     </row>
     <row r="5" spans="2:25" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
@@ -3441,31 +3490,31 @@
     </row>
     <row r="6" spans="2:25" s="11" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="I6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>10</v>
-      </c>
       <c r="J6" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -3484,29 +3533,15 @@
       <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
-        <v>43266</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>2</v>
-      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3524,17 +3559,25 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="B8" s="14">
+        <v>43865</v>
+      </c>
+      <c r="C8" s="25">
+        <v>9</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="J8" s="15"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -3552,17 +3595,25 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="B9" s="14">
+        <v>43865</v>
+      </c>
+      <c r="C9" s="25">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="J9" s="15"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -3580,11 +3631,21 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="14">
+        <v>43865</v>
+      </c>
+      <c r="C10" s="25">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
       <c r="I10" s="15"/>
@@ -3606,11 +3667,21 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="14">
+        <v>43865</v>
+      </c>
+      <c r="C11" s="25">
+        <v>5</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
       <c r="I11" s="15"/>
@@ -3632,11 +3703,21 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="B12" s="14">
+        <v>43865</v>
+      </c>
+      <c r="C12" s="25">
+        <v>4</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
       <c r="I12" s="15"/>
@@ -3658,11 +3739,21 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="B13" s="14">
+        <v>43865</v>
+      </c>
+      <c r="C13" s="25">
+        <v>4</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="15"/>
       <c r="H13" s="16"/>
       <c r="I13" s="15"/>
@@ -3684,11 +3775,21 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="B14" s="14">
+        <v>43865</v>
+      </c>
+      <c r="C14" s="25">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
       <c r="I14" s="15"/>
@@ -3710,11 +3811,21 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="14">
+        <v>43274</v>
+      </c>
+      <c r="C15" s="25">
+        <v>3</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
       <c r="I15" s="15"/>
@@ -3736,8 +3847,10 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="14">
+        <v>43275</v>
+      </c>
+      <c r="C16" s="25"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -3762,8 +3875,10 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="14">
+        <v>43276</v>
+      </c>
+      <c r="C17" s="25"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -3788,8 +3903,10 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="14">
+        <v>43277</v>
+      </c>
+      <c r="C18" s="25"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -3814,8 +3931,10 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="14">
+        <v>43278</v>
+      </c>
+      <c r="C19" s="25"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -3840,8 +3959,10 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="14">
+        <v>43279</v>
+      </c>
+      <c r="C20" s="25"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -3866,8 +3987,10 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="14">
+        <v>43280</v>
+      </c>
+      <c r="C21" s="25"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -3892,8 +4015,10 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="14">
+        <v>43281</v>
+      </c>
+      <c r="C22" s="25"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -3918,8 +4043,10 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="14">
+        <v>43282</v>
+      </c>
+      <c r="C23" s="25"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -3944,8 +4071,10 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="14">
+        <v>43283</v>
+      </c>
+      <c r="C24" s="25"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -3970,8 +4099,10 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="14">
+        <v>43284</v>
+      </c>
+      <c r="C25" s="25"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -3996,8 +4127,10 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="14">
+        <v>43285</v>
+      </c>
+      <c r="C26" s="25"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -4022,8 +4155,10 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="14">
+        <v>43286</v>
+      </c>
+      <c r="C27" s="25"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -4048,8 +4183,10 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="14">
+        <v>43287</v>
+      </c>
+      <c r="C28" s="25"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -4074,8 +4211,10 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="14">
+        <v>43288</v>
+      </c>
+      <c r="C29" s="25"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -4100,8 +4239,10 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="14">
+        <v>43289</v>
+      </c>
+      <c r="C30" s="25"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -4126,8 +4267,10 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="14">
+        <v>43290</v>
+      </c>
+      <c r="C31" s="25"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -4152,8 +4295,10 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="14">
+        <v>43291</v>
+      </c>
+      <c r="C32" s="25"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -4178,8 +4323,10 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="14">
+        <v>43292</v>
+      </c>
+      <c r="C33" s="25"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -4204,8 +4351,10 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="14">
+        <v>43293</v>
+      </c>
+      <c r="C34" s="25"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -4230,8 +4379,10 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="14">
+        <v>43294</v>
+      </c>
+      <c r="C35" s="25"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -4256,8 +4407,10 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="2:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="14">
+        <v>43295</v>
+      </c>
+      <c r="C36" s="25"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -4282,8 +4435,10 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="2:25" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="14">
+        <v>43296</v>
+      </c>
+      <c r="C37" s="30"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -4308,17 +4463,17 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="2:25" s="19" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
+      <c r="B38" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -4337,7 +4492,7 @@
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -4363,7 +4518,7 @@
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -4389,7 +4544,7 @@
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -4415,7 +4570,7 @@
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -4441,7 +4596,7 @@
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -4467,7 +4622,7 @@
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -4493,7 +4648,7 @@
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -4519,7 +4674,7 @@
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -4545,7 +4700,7 @@
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -4571,7 +4726,7 @@
     </row>
     <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="30"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -4597,7 +4752,7 @@
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -4623,7 +4778,7 @@
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -4649,7 +4804,7 @@
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -4675,7 +4830,7 @@
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="30"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -4701,7 +4856,7 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="30"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -4727,7 +4882,7 @@
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -4753,7 +4908,7 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="30"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -4779,7 +4934,7 @@
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -4805,7 +4960,7 @@
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="C57" s="30"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -4831,7 +4986,7 @@
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="C58" s="30"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -4857,7 +5012,7 @@
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -4883,7 +5038,7 @@
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -4909,7 +5064,7 @@
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="C61" s="30"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -4935,7 +5090,7 @@
     </row>
     <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="C62" s="30"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -4961,7 +5116,7 @@
     </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="30"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4987,7 +5142,7 @@
     </row>
     <row r="64" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -5013,7 +5168,7 @@
     </row>
     <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -5039,7 +5194,7 @@
     </row>
     <row r="66" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -5065,7 +5220,7 @@
     </row>
     <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="C67" s="30"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -5091,7 +5246,7 @@
     </row>
     <row r="68" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="C68" s="30"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -5117,7 +5272,7 @@
     </row>
     <row r="69" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="C69" s="30"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -5143,7 +5298,7 @@
     </row>
     <row r="70" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -5169,7 +5324,7 @@
     </row>
     <row r="71" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -5195,7 +5350,7 @@
     </row>
     <row r="72" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -5221,7 +5376,7 @@
     </row>
     <row r="73" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="C73" s="30"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -5247,7 +5402,7 @@
     </row>
     <row r="74" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -5967,7 +6122,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B8:H8</xm:sqref>
+          <xm:sqref>C8:H8 C9:C29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="62" id="{07E4F01B-CE26-5B4D-ACF3-1E0A8EB2FD23}">
@@ -5985,7 +6140,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B7:J7 I8:J9</xm:sqref>
+          <xm:sqref>B7:J7 I8:J9 B8:B37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="61" id="{1C4D6E8F-045C-5F4C-B1D8-7ABA82174623}">
@@ -6003,7 +6158,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B9:H9</xm:sqref>
+          <xm:sqref>D9:H9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="60" id="{1C67D2DD-76C7-1A4A-AD82-AD7BCE7F3721}">
@@ -6021,7 +6176,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B10:J10</xm:sqref>
+          <xm:sqref>D10:J10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="59" id="{D9C53A36-BD51-AC46-A4F2-6C62EDDE7121}">
@@ -6039,7 +6194,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B11:J11</xm:sqref>
+          <xm:sqref>D11:J11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="58" id="{8FC70330-4439-C348-A01B-5213FE7A2476}">
@@ -6057,7 +6212,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B12:J12</xm:sqref>
+          <xm:sqref>D12:J12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="57" id="{7DE95375-D593-484E-AE75-B1DEE5A8DB67}">
@@ -6075,7 +6230,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B13:J13</xm:sqref>
+          <xm:sqref>D13:J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="56" id="{AD64F53D-8676-514D-9BD9-E801A993A1F0}">
@@ -6093,7 +6248,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B14:J14</xm:sqref>
+          <xm:sqref>D14:J14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="55" id="{5334E948-3CD8-8D4E-8D9E-7FE9FABDCF69}">
@@ -6111,7 +6266,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B15:J15</xm:sqref>
+          <xm:sqref>D15:J15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="54" id="{A43819E2-9E91-D94D-BB25-339DBBD7AE17}">
@@ -6129,7 +6284,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B16:J16</xm:sqref>
+          <xm:sqref>D16:J16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="53" id="{6F3D8FCE-584C-DA4F-94E0-366571699CA0}">
@@ -6147,7 +6302,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B17:J17</xm:sqref>
+          <xm:sqref>D17:J17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="52" id="{9737A92A-FEF4-CA4F-B314-425F576BBD4E}">
@@ -6165,7 +6320,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B18:J18</xm:sqref>
+          <xm:sqref>D18:J18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="51" id="{F9A293A6-9690-7E4C-A267-218913D00132}">
@@ -6183,7 +6338,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B19:J19</xm:sqref>
+          <xm:sqref>D19:J19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="50" id="{82CAD8AD-3630-274D-9078-503929890D3E}">
@@ -6201,7 +6356,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B20:J20</xm:sqref>
+          <xm:sqref>D20:J20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="49" id="{0B1A353E-5A08-3A44-A7CC-7C117EDA363D}">
@@ -6219,7 +6374,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B21:J21</xm:sqref>
+          <xm:sqref>D21:J21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="15" id="{1CB154C3-B5D9-6C41-BE32-8DA2EC0756D3}">
@@ -6237,7 +6392,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B22:J22</xm:sqref>
+          <xm:sqref>D22:J22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="14" id="{94AF9E3A-33F7-1343-A4B3-D9349C732A05}">
@@ -6255,7 +6410,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B23:J23</xm:sqref>
+          <xm:sqref>D23:J23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="13" id="{D2F09604-3EAE-A640-AA5D-4FA96B592FE1}">
@@ -6273,7 +6428,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B24:J24</xm:sqref>
+          <xm:sqref>D24:J24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="12" id="{47860E42-1404-4641-A63E-F9F3C18CB933}">
@@ -6291,7 +6446,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B25:J25</xm:sqref>
+          <xm:sqref>D25:J25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="11" id="{5B69AFB5-67DA-D646-95FE-06CA8930447A}">
@@ -6309,7 +6464,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B26:J26</xm:sqref>
+          <xm:sqref>D26:J26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="10" id="{36588A08-5E10-3A4A-8DE2-199A939DF05A}">
@@ -6327,7 +6482,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B27:J27</xm:sqref>
+          <xm:sqref>D27:J27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="9" id="{EF2DD601-5804-8240-A829-2E220F9F07B9}">
@@ -6345,7 +6500,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B28:J28</xm:sqref>
+          <xm:sqref>D28:J28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="8" id="{A0961B56-CB64-294B-A780-0E9C65C1E1DA}">
@@ -6363,7 +6518,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B29:J29</xm:sqref>
+          <xm:sqref>D29:J29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="7" id="{FB0EDD02-3F50-7547-9667-5CEBC77D2AA4}">
@@ -6381,7 +6536,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B30:J30</xm:sqref>
+          <xm:sqref>C30:J30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="6" id="{AA4AF220-320C-344F-B90B-03F5C4D7EDE5}">
@@ -6399,7 +6554,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B31:J31</xm:sqref>
+          <xm:sqref>C31:J31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="5" id="{189503CF-D475-AF46-86B4-540796B8524A}">
@@ -6417,7 +6572,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B32:J32</xm:sqref>
+          <xm:sqref>C32:J32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{BA8425F0-C9E3-3545-876E-37844D07E0BA}">
@@ -6435,7 +6590,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B33:J33</xm:sqref>
+          <xm:sqref>C33:J33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{7CDB6807-DE8A-7646-8280-7BBB132CF999}">
@@ -6453,7 +6608,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B34:J34</xm:sqref>
+          <xm:sqref>C34:J34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="2" id="{6FC37A1F-EDA1-7F4C-8D02-F70B6BA267F9}">
@@ -6471,7 +6626,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B35:J35</xm:sqref>
+          <xm:sqref>C35:J35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{E654506E-FD4C-FB48-9F34-EE37ADC0E754}">
@@ -6489,7 +6644,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B36:J36</xm:sqref>
+          <xm:sqref>C36:J36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6520,12 +6675,12 @@
   <sheetData>
     <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6550,6 +6705,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001E699AB3B5B90B4E9587B6CE8A7722F9" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327bf17b6c8b56faa046bfad41848f88">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2908a239-9a9c-424d-a25e-b52b320ef348" xmlns:ns4="14699dbd-23eb-47d5-a11a-8dab2a8bfb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfb120bc1534939806b9bc4170ddcf21" ns3:_="" ns4:_="">
     <xsd:import namespace="2908a239-9a9c-424d-a25e-b52b320ef348"/>
@@ -6720,7 +6881,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6729,13 +6890,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{943795AF-9E85-4686-BF46-1A9E3F69B07A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="14699dbd-23eb-47d5-a11a-8dab2a8bfb64"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2908a239-9a9c-424d-a25e-b52b320ef348"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{395500BF-5D64-47FA-8516-846D2479598F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6754,27 +6926,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B01F70-A4AC-4F1F-BFEA-2CE3694CCB74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{943795AF-9E85-4686-BF46-1A9E3F69B07A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2908a239-9a9c-424d-a25e-b52b320ef348"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="14699dbd-23eb-47d5-a11a-8dab2a8bfb64"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Sprint 2/Sprint_Backlog/Sprint2TestPlan.xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint2TestPlan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afzalmiah\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3360674-5888-42A9-BFAF-D9364F573E7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Test Plan" sheetId="1" r:id="rId1"/>
@@ -20,14 +21,6 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>TESTER COMMENTS</t>
   </si>
@@ -264,12 +257,21 @@
   </si>
   <si>
     <t>Need to scale down</t>
+  </si>
+  <si>
+    <t>Correct distance between Dundee and Glasgow</t>
+  </si>
+  <si>
+    <t>Calculate Distance between Dundee and Glasgow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -564,7 +566,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="35">
     <dxf>
@@ -1041,7 +1043,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1101,7 +1103,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1125,7 +1127,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3598,16 +3600,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:Y76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4604,13 +4606,25 @@
       <c r="B27" s="14">
         <v>43284</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="C27" s="25">
+        <v>2</v>
+      </c>
+      <c r="D27" s="15">
+        <v>2</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="H27" s="16"/>
-      <c r="I27" s="15"/>
+      <c r="I27" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="J27" s="15"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -5933,7 +5947,7 @@
     <mergeCell ref="B40:J40"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B40:J40" r:id="rId1" display="CLICK HERE TO CREATE IN SMARTSHEET"/>
+    <hyperlink ref="B40:J40" r:id="rId1" display="CLICK HERE TO CREATE IN SMARTSHEET" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
@@ -7292,7 +7306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -7356,7 +7370,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -7396,15 +7410,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001E699AB3B5B90B4E9587B6CE8A7722F9" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327bf17b6c8b56faa046bfad41848f88">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2908a239-9a9c-424d-a25e-b52b320ef348" xmlns:ns4="14699dbd-23eb-47d5-a11a-8dab2a8bfb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfb120bc1534939806b9bc4170ddcf21" ns3:_="" ns4:_="">
     <xsd:import namespace="2908a239-9a9c-424d-a25e-b52b320ef348"/>
@@ -7575,6 +7580,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7582,14 +7596,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B01F70-A4AC-4F1F-BFEA-2CE3694CCB74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{395500BF-5D64-47FA-8516-846D2479598F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7604,6 +7610,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B01F70-A4AC-4F1F-BFEA-2CE3694CCB74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
